--- a/halp/notebook/data/logreg_test_acc_all_temporal.xlsx
+++ b/halp/notebook/data/logreg_test_acc_all_temporal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="logreg_test_acc_all_temporal" sheetId="1" r:id="rId1"/>
@@ -620,11 +620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="272383152"/>
-        <c:axId val="268826304"/>
+        <c:axId val="415458736"/>
+        <c:axId val="416187184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="272383152"/>
+        <c:axId val="415458736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268826304"/>
+        <c:crossAx val="416187184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -730,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268826304"/>
+        <c:axId val="416187184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.93"/>
@@ -842,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272383152"/>
+        <c:crossAx val="415458736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1476,10 +1476,10 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1766,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
